--- a/data/sitios_PELD.xlsx
+++ b/data/sitios_PELD.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesarcordeiro/Google Drive/LECAR/projetos/Workshop temporal/DADOS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesarcordeiro/github/workshop_temporal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6061C96-72A1-B847-BE30-00DBF1B26547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B923DFB1-C333-5D4F-949C-A8ECE821FDF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14500" xr2:uid="{EAB579B5-24EE-9746-A137-2A77BA8AE469}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14460" activeTab="1" xr2:uid="{EAB579B5-24EE-9746-A137-2A77BA8AE469}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$A$35</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="119">
   <si>
     <t xml:space="preserve"> PELD Abrolhos</t>
   </si>
@@ -295,6 +296,96 @@
   </si>
   <si>
     <t>habitat</t>
+  </si>
+  <si>
+    <t>Projetos de Biodiversidade patrocinados pela Petrobras</t>
+  </si>
+  <si>
+    <t>Projeto</t>
+  </si>
+  <si>
+    <t>Início do Apoio</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Tamar</t>
+  </si>
+  <si>
+    <t>www.tamar.org.br/</t>
+  </si>
+  <si>
+    <t>Baleia Jubarte</t>
+  </si>
+  <si>
+    <t>www.baleiajubarte.org.br</t>
+  </si>
+  <si>
+    <t>Golfinho Rotador</t>
+  </si>
+  <si>
+    <t>golfinhorotador.org.br/</t>
+  </si>
+  <si>
+    <t>Coral Vivo</t>
+  </si>
+  <si>
+    <t>coralvivo.org.br/</t>
+  </si>
+  <si>
+    <t>Albatroz</t>
+  </si>
+  <si>
+    <t>projetoalbatroz.org.br/</t>
+  </si>
+  <si>
+    <t>Meros do Brasil</t>
+  </si>
+  <si>
+    <t>www.merosdobrasil.org</t>
+  </si>
+  <si>
+    <t>Manati</t>
+  </si>
+  <si>
+    <t>www.projetomanati.org.br</t>
+  </si>
+  <si>
+    <t>Ponta de Pirangi</t>
+  </si>
+  <si>
+    <t>oceanica.org.br/pontadepirangi/</t>
+  </si>
+  <si>
+    <t>Uçá</t>
+  </si>
+  <si>
+    <t>projetouca.org.br</t>
+  </si>
+  <si>
+    <t>Aves Migratórias do Nordeste</t>
+  </si>
+  <si>
+    <t>aquasis.org/aves-costeiras/</t>
+  </si>
+  <si>
+    <t>Budiões</t>
+  </si>
+  <si>
+    <t>https://budioes.org/o-projeto/</t>
+  </si>
+  <si>
+    <t>Franca Austral</t>
+  </si>
+  <si>
+    <t>http://baleiafranca.org.br/</t>
+  </si>
+  <si>
+    <t>Boto Cinza</t>
+  </si>
+  <si>
+    <t>https://ipecpesquisas.org.br/projetobotocinza/</t>
   </si>
 </sst>
 </file>
@@ -666,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F3EEDD-90BB-204F-B282-1620C7B0DFD7}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -891,9 +982,6 @@
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -1069,6 +1157,185 @@
       </c>
       <c r="C35" t="s">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7CE006-C8A3-EB42-A8EA-B8990497590F}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3">
+        <v>1982</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>1996</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <v>2001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>2006</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7">
+        <v>2006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8">
+        <v>2006</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9">
+        <v>2010</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10">
+        <v>2010</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <v>2012</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13">
+        <v>2019</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
